--- a/Documentation/Sample Calculations.xlsx
+++ b/Documentation/Sample Calculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allanbrown/Documents/GitHub/ten-point-nine/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFD140-C8EB-0140-AB22-D304914745FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497084E3-69D2-944C-A77A-68E4BB538D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{2D92CEB4-FA4C-CE48-8674-2CF686D48953}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Calculations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>GEOMETRY</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>This illustrates the location of the estimate (e) and how the estimate is incorporated into the remaining three sides</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>cos</t>
   </si>
 </sst>
 </file>
@@ -302,12 +308,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,14 +315,20 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCB000A-B495-9B48-9204-0C106A7A77DB}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,10 +833,10 @@
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="H2" s="5"/>
@@ -1090,10 +1096,10 @@
     </row>
     <row r="14" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>28.81</v>
       </c>
     </row>
@@ -1179,10 +1185,16 @@
       <c r="K18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1216,22 +1228,30 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11">
-        <f>B7</f>
+        <f t="shared" ref="I19:J22" si="2">B7</f>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>C7</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K19" s="11">
         <f>PI()/2-E7-G19</f>
         <v>0.76736449754463032</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="1">
+        <f>SIN(K19)</f>
+        <v>0.69424076785304301</v>
+      </c>
+      <c r="M19" s="1">
+        <f>COS(K19)</f>
+        <v>0.71974284036092873</v>
+      </c>
+      <c r="N19" s="11">
         <f>I19+B17*SIN(K19)</f>
         <v>20.001076521846169</v>
       </c>
-      <c r="M19" s="11">
+      <c r="O19" s="11">
         <f>J19-B17*COS(K19)</f>
         <v>29.264208769201645</v>
       </c>
@@ -1249,7 +1269,7 @@
         <v>39.087901516970959</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:D22" si="2">B20+C20</f>
+        <f t="shared" ref="D20:D22" si="3">B20+C20</f>
         <v>67.897901516970961</v>
       </c>
       <c r="E20" s="11">
@@ -1257,7 +1277,7 @@
         <v>41.908582948312002</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" ref="F20:F21" si="3">$B$5</f>
+        <f t="shared" ref="F20:F21" si="4">$B$5</f>
         <v>70.710678118654755</v>
       </c>
       <c r="G20" s="11">
@@ -1266,22 +1286,30 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11">
-        <f>B8</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J20" s="11">
-        <f>C8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="11">
         <f>G20-E8</f>
         <v>0.41485640147381209</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L22" si="5">SIN(K20)</f>
+        <v>0.40305851687416833</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:M22" si="6">COS(K20)</f>
+        <v>0.91517420853911513</v>
+      </c>
+      <c r="N20" s="11">
         <f>I20-C17*COS(K20)</f>
         <v>11.646345769282711</v>
       </c>
-      <c r="M20" s="11">
+      <c r="O20" s="11">
         <f>J20+C17*SIN(K20)</f>
         <v>16.891611287444697</v>
       </c>
@@ -1299,7 +1327,7 @@
         <v>31.622776601683793</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60.432776601683791</v>
       </c>
       <c r="E21" s="11">
@@ -1307,31 +1335,39 @@
         <v>67.897901516970961</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.710678118654755</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" ref="G21:G22" si="4">ACOS((D21^2-E21^2-F21^2)/(-2*E21*F21))</f>
+        <f t="shared" ref="G21:G22" si="7">ACOS((D21^2-E21^2-F21^2)/(-2*E21*F21))</f>
         <v>0.90143861636725064</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11">
-        <f>B9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="11">
-        <f>C9</f>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="K21" s="11">
         <f>G21+E9</f>
         <v>1.686836779764699</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99327485810711247</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.11578020665163621</v>
+      </c>
+      <c r="N21" s="11">
         <f>I21-D17*COS(K21)</f>
         <v>7.8612330688473415</v>
       </c>
-      <c r="M21" s="11">
+      <c r="O21" s="11">
         <f>J21+D17*SIN(K21)</f>
         <v>17.441278495040024</v>
       </c>
@@ -1349,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.81</v>
       </c>
       <c r="E22" s="11">
@@ -1361,27 +1397,35 @@
         <v>70.710678118654755</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41468755103694099</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11">
-        <f>B10</f>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="J22" s="11">
-        <f>C10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="11">
         <f>PI()/2-E10-G22</f>
         <v>0.37071061236050729</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36227786394257422</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.93207014183333092</v>
+      </c>
+      <c r="N22" s="11">
         <f>I22+E17*COS(K22)</f>
         <v>6.3275866585134111</v>
       </c>
-      <c r="M22" s="11">
+      <c r="O22" s="11">
         <f>J22+E17*SIN(K22)</f>
         <v>21.893457219376785</v>
       </c>
@@ -1390,13 +1434,13 @@
       <c r="A24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="17">
-        <f>AVERAGE(L19:L22)</f>
+      <c r="B24" s="15">
+        <f>AVERAGE(N19:N22)</f>
         <v>11.459060504622409</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1406,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="11">
-        <f>AVERAGE(M19:M22)</f>
+        <f>AVERAGE(O19:O22)</f>
         <v>21.372638942765789</v>
       </c>
       <c r="C25" s="11"/>
@@ -1433,17 +1477,17 @@
       <c r="P26" s="24"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <f>SQRT((B24-B7)^2+(C7-B25)^2)</f>
         <v>30.835626615164593</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1452,21 +1496,21 @@
       <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1477,10 +1521,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1489,10 +1533,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -1501,10 +1545,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1513,10 +1557,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1552,6 +1596,12 @@
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="1">
+        <f>68+0.91</f>
+        <v>68.91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
